--- a/Run 2/Forecast_Results_LSTM_Demand.xlsx
+++ b/Run 2/Forecast_Results_LSTM_Demand.xlsx
@@ -5,23 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpersaricioglu/Library/Mobile Documents/com~apple~CloudDocs/PhD Thesis/1 Tez Önerisi/1 Çalışmalar/Time series runs 26.3.24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpersaricioglu/Library/Mobile Documents/com~apple~CloudDocs/PhD Thesis/1 Tez Önerisi/1 Çalışmalar/Time series runs 26.3.24/New DNN forecast input (9.4.24)/Run 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1D65DA-927A-6F49-BDF9-F484D0815C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA411DE-FF36-9A4E-AF87-13D88E44D6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forecasted Demand" sheetId="1" r:id="rId1"/>
-    <sheet name="Forecast Errors" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Apparel</t>
   </si>
@@ -253,31 +252,13 @@
   <si>
     <t>Total Merchant Wholesalers, Except Manufacturers' Sales Branches and Offices</t>
   </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>MAPE</t>
-  </si>
-  <si>
-    <t>sMAPE</t>
-  </si>
-  <si>
-    <t>MAE</t>
-  </si>
-  <si>
-    <t>MSE</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -334,7 +315,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -641,14 +622,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>82</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23299,1576 +23282,6 @@
       </c>
       <c r="BZ96">
         <v>357647.6875</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F78"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0.28066735687628153</v>
-      </c>
-      <c r="D2">
-        <v>0.23722675161306489</v>
-      </c>
-      <c r="E2">
-        <v>115.085058872872</v>
-      </c>
-      <c r="F2">
-        <v>16733.885513577799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.29321727511058382</v>
-      </c>
-      <c r="D3">
-        <v>0.24707303620137039</v>
-      </c>
-      <c r="E3">
-        <v>121.8756192690844</v>
-      </c>
-      <c r="F3">
-        <v>30652.080711593229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0.47823991050088221</v>
-      </c>
-      <c r="D4">
-        <v>0.24756128507171021</v>
-      </c>
-      <c r="E4">
-        <v>1443.6701891967871</v>
-      </c>
-      <c r="F4">
-        <v>3137434.5120605198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0.35401572868103698</v>
-      </c>
-      <c r="D5">
-        <v>0.2843212597311931</v>
-      </c>
-      <c r="E5">
-        <v>119.7424893415031</v>
-      </c>
-      <c r="F5">
-        <v>19603.648043806239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>4.2724248691861241E-2</v>
-      </c>
-      <c r="D6">
-        <v>4.3252716212948752E-2</v>
-      </c>
-      <c r="E6">
-        <v>138.17529515930431</v>
-      </c>
-      <c r="F6">
-        <v>31213.860179356809</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>0.14559014034995391</v>
-      </c>
-      <c r="D7">
-        <v>0.13305362323879949</v>
-      </c>
-      <c r="E7">
-        <v>22.728885151476931</v>
-      </c>
-      <c r="F7">
-        <v>727.91560692343296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>0.30660492924436938</v>
-      </c>
-      <c r="D8">
-        <v>0.25316015762153282</v>
-      </c>
-      <c r="E8">
-        <v>609.80575965473531</v>
-      </c>
-      <c r="F8">
-        <v>594420.69139095873</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>0.78178471709221187</v>
-      </c>
-      <c r="D9">
-        <v>0.48730674037570437</v>
-      </c>
-      <c r="E9">
-        <v>276.65403068009988</v>
-      </c>
-      <c r="F9">
-        <v>139652.7917398056</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>0.16801946252989339</v>
-      </c>
-      <c r="D10">
-        <v>0.15507695797631929</v>
-      </c>
-      <c r="E10">
-        <v>210.12915279040561</v>
-      </c>
-      <c r="F10">
-        <v>61398.568060825521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>4.6128101054488689E-2</v>
-      </c>
-      <c r="D11">
-        <v>4.7017318777220422E-2</v>
-      </c>
-      <c r="E11">
-        <v>221.43197194698101</v>
-      </c>
-      <c r="F11">
-        <v>72959.511865885259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>0.31081215696213882</v>
-      </c>
-      <c r="D12">
-        <v>0.25447552468059409</v>
-      </c>
-      <c r="E12">
-        <v>127.1547899033805</v>
-      </c>
-      <c r="F12">
-        <v>22392.0608370589</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>0.16095961873715331</v>
-      </c>
-      <c r="D13">
-        <v>0.1450858495173547</v>
-      </c>
-      <c r="E13">
-        <v>214.5512920979659</v>
-      </c>
-      <c r="F13">
-        <v>66850.119587420224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>9.2890249274000261E-2</v>
-      </c>
-      <c r="D14">
-        <v>9.9318709676349745E-2</v>
-      </c>
-      <c r="E14">
-        <v>640.17230187908001</v>
-      </c>
-      <c r="F14">
-        <v>690362.61227492359</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>1.8428988490017739</v>
-      </c>
-      <c r="D15">
-        <v>0.65022981984754358</v>
-      </c>
-      <c r="E15">
-        <v>1414.0033197540099</v>
-      </c>
-      <c r="F15">
-        <v>4873033.057066543</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>0.10053435370971379</v>
-      </c>
-      <c r="D16">
-        <v>9.3133352703481539E-2</v>
-      </c>
-      <c r="E16">
-        <v>1052.928240154064</v>
-      </c>
-      <c r="F16">
-        <v>1708581.956033197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>0.2988144238816709</v>
-      </c>
-      <c r="D17">
-        <v>0.28454398397948227</v>
-      </c>
-      <c r="E17">
-        <v>291.13328064515861</v>
-      </c>
-      <c r="F17">
-        <v>121368.47602998689</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>0.63437327726680248</v>
-      </c>
-      <c r="D18">
-        <v>0.436611529078136</v>
-      </c>
-      <c r="E18">
-        <v>276.84528814750871</v>
-      </c>
-      <c r="F18">
-        <v>102630.60495900809</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>0.2396029744380474</v>
-      </c>
-      <c r="D19">
-        <v>0.19654735832509729</v>
-      </c>
-      <c r="E19">
-        <v>545.89919293838</v>
-      </c>
-      <c r="F19">
-        <v>550187.06635405729</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <v>9.7265601011929298E-2</v>
-      </c>
-      <c r="D20">
-        <v>9.0917749200256734E-2</v>
-      </c>
-      <c r="E20">
-        <v>322.22487077235382</v>
-      </c>
-      <c r="F20">
-        <v>151451.2940257767</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>0.25167776554899668</v>
-      </c>
-      <c r="D21">
-        <v>0.22378033615467199</v>
-      </c>
-      <c r="E21">
-        <v>369.50792447727059</v>
-      </c>
-      <c r="F21">
-        <v>174545.29677410561</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <v>0.16829279567388661</v>
-      </c>
-      <c r="D22">
-        <v>0.14393224634398419</v>
-      </c>
-      <c r="E22">
-        <v>138.33618877888921</v>
-      </c>
-      <c r="F22">
-        <v>37586.426143858953</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <v>0.28820977675408471</v>
-      </c>
-      <c r="D23">
-        <v>0.2402513714224298</v>
-      </c>
-      <c r="E23">
-        <v>300.8613641469895</v>
-      </c>
-      <c r="F23">
-        <v>120895.6662020176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>0.12520184295089931</v>
-      </c>
-      <c r="D24">
-        <v>0.1179859826766937</v>
-      </c>
-      <c r="E24">
-        <v>491.54046413876171</v>
-      </c>
-      <c r="F24">
-        <v>311814.74293789652</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25">
-        <v>8.6647748885723866E-2</v>
-      </c>
-      <c r="D25">
-        <v>8.5163943545360624E-2</v>
-      </c>
-      <c r="E25">
-        <v>15.95564315419267</v>
-      </c>
-      <c r="F25">
-        <v>428.90314475150097</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26">
-        <v>0.36421314632410062</v>
-      </c>
-      <c r="D26">
-        <v>0.42323583284299798</v>
-      </c>
-      <c r="E26">
-        <v>3623.059392076706</v>
-      </c>
-      <c r="F26">
-        <v>17425038.07331641</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <v>8.0528840302506427E-2</v>
-      </c>
-      <c r="D27">
-        <v>8.3596848801208157E-2</v>
-      </c>
-      <c r="E27">
-        <v>94.137139691836126</v>
-      </c>
-      <c r="F27">
-        <v>15450.54402176134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28">
-        <v>7.4861409381424923E-2</v>
-      </c>
-      <c r="D28">
-        <v>7.8658002018363052E-2</v>
-      </c>
-      <c r="E28">
-        <v>770.12900505420805</v>
-      </c>
-      <c r="F28">
-        <v>784670.4577930494</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29">
-        <v>0.33714602076737649</v>
-      </c>
-      <c r="D29">
-        <v>0.27985236187629392</v>
-      </c>
-      <c r="E29">
-        <v>315.32574526998428</v>
-      </c>
-      <c r="F29">
-        <v>118369.36757826649</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30">
-        <v>0.83955122414018235</v>
-      </c>
-      <c r="D30">
-        <v>0.57832902260681485</v>
-      </c>
-      <c r="E30">
-        <v>415.11851128764431</v>
-      </c>
-      <c r="F30">
-        <v>183350.9409817261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31">
-        <v>8.8079770723124645E-2</v>
-      </c>
-      <c r="D31">
-        <v>8.2455147045048971E-2</v>
-      </c>
-      <c r="E31">
-        <v>367.78595621161583</v>
-      </c>
-      <c r="F31">
-        <v>202318.31980380791</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32">
-        <v>0.18190892448311641</v>
-      </c>
-      <c r="D32">
-        <v>0.16145825193656971</v>
-      </c>
-      <c r="E32">
-        <v>625.97694590447077</v>
-      </c>
-      <c r="F32">
-        <v>522911.95722602442</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33">
-        <v>0.51284384332173272</v>
-      </c>
-      <c r="D33">
-        <v>0.38487126859913251</v>
-      </c>
-      <c r="E33">
-        <v>279.87491619645721</v>
-      </c>
-      <c r="F33">
-        <v>94087.536004337555</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34">
-        <v>0.1147071657197479</v>
-      </c>
-      <c r="D34">
-        <v>0.1218139875439794</v>
-      </c>
-      <c r="E34">
-        <v>480.56502090493763</v>
-      </c>
-      <c r="F34">
-        <v>319861.17980245408</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35">
-        <v>0.1253717829379013</v>
-      </c>
-      <c r="D35">
-        <v>0.1156854707297636</v>
-      </c>
-      <c r="E35">
-        <v>128.465271158912</v>
-      </c>
-      <c r="F35">
-        <v>21752.733471175659</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36">
-        <v>5.3104939922723922E-2</v>
-      </c>
-      <c r="D36">
-        <v>5.2377866314895057E-2</v>
-      </c>
-      <c r="E36">
-        <v>117.1543443338918</v>
-      </c>
-      <c r="F36">
-        <v>20627.831576305482</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37">
-        <v>0.1776318065614706</v>
-      </c>
-      <c r="D37">
-        <v>0.16120173370973129</v>
-      </c>
-      <c r="E37">
-        <v>148.86598344466219</v>
-      </c>
-      <c r="F37">
-        <v>35793.362909271542</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38">
-        <v>9.7379249297956785E-2</v>
-      </c>
-      <c r="D38">
-        <v>9.3622762262527914E-2</v>
-      </c>
-      <c r="E38">
-        <v>1355.4943047246391</v>
-      </c>
-      <c r="F38">
-        <v>2553215.0091242678</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39">
-        <v>0.1311445584712915</v>
-      </c>
-      <c r="D39">
-        <v>0.1210862288134671</v>
-      </c>
-      <c r="E39">
-        <v>443.24199898710322</v>
-      </c>
-      <c r="F39">
-        <v>252084.7971658216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40">
-        <v>0.25615849406520891</v>
-      </c>
-      <c r="D40">
-        <v>0.21935891458663989</v>
-      </c>
-      <c r="E40">
-        <v>44.687024963053368</v>
-      </c>
-      <c r="F40">
-        <v>2540.193008359312</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41">
-        <v>9.5468657357862086E-2</v>
-      </c>
-      <c r="D41">
-        <v>8.9205846718504345E-2</v>
-      </c>
-      <c r="E41">
-        <v>742.62964198337238</v>
-      </c>
-      <c r="F41">
-        <v>802841.07142364257</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <v>0.12884501324865061</v>
-      </c>
-      <c r="D42">
-        <v>0.1178032672792737</v>
-      </c>
-      <c r="E42">
-        <v>336.66850424173981</v>
-      </c>
-      <c r="F42">
-        <v>165061.65226220031</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43">
-        <v>0.18255063983739059</v>
-      </c>
-      <c r="D43">
-        <v>0.16284203252198409</v>
-      </c>
-      <c r="E43">
-        <v>401.46392884783501</v>
-      </c>
-      <c r="F43">
-        <v>203978.1721627333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>0.12664740526842511</v>
-      </c>
-      <c r="D44">
-        <v>0.13533057786064009</v>
-      </c>
-      <c r="E44">
-        <v>238.41563846963649</v>
-      </c>
-      <c r="F44">
-        <v>82867.315095295868</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45">
-        <v>0.19668830596414841</v>
-      </c>
-      <c r="D45">
-        <v>0.22198062471481431</v>
-      </c>
-      <c r="E45">
-        <v>195.22723893106439</v>
-      </c>
-      <c r="F45">
-        <v>46131.422916898242</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46">
-        <v>0.26497071325582972</v>
-      </c>
-      <c r="D46">
-        <v>0.2243211098468533</v>
-      </c>
-      <c r="E46">
-        <v>296.61458107462869</v>
-      </c>
-      <c r="F46">
-        <v>111813.5798320735</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47">
-        <v>0.2073128834080265</v>
-      </c>
-      <c r="D47">
-        <v>0.1763108598512973</v>
-      </c>
-      <c r="E47">
-        <v>173.24126903400139</v>
-      </c>
-      <c r="F47">
-        <v>51416.016749022689</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48">
-        <v>0.1273369162293205</v>
-      </c>
-      <c r="D48">
-        <v>0.13949059282146209</v>
-      </c>
-      <c r="E48">
-        <v>80.141310462923826</v>
-      </c>
-      <c r="F48">
-        <v>10073.009081210121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49">
-        <v>7.0258821190415335E-2</v>
-      </c>
-      <c r="D49">
-        <v>6.8374632548354214E-2</v>
-      </c>
-      <c r="E49">
-        <v>13555.32027706693</v>
-      </c>
-      <c r="F49">
-        <v>260378571.7501114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50">
-        <v>0.1347206151049947</v>
-      </c>
-      <c r="D50">
-        <v>0.13753077345390369</v>
-      </c>
-      <c r="E50">
-        <v>5636.568557270175</v>
-      </c>
-      <c r="F50">
-        <v>51285826.061190613</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51">
-        <v>7.0950846396945572E-2</v>
-      </c>
-      <c r="D51">
-        <v>7.0288715377211097E-2</v>
-      </c>
-      <c r="E51">
-        <v>112.8683339054848</v>
-      </c>
-      <c r="F51">
-        <v>19391.232530046462</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52">
-        <v>0.1027203309902861</v>
-      </c>
-      <c r="D52">
-        <v>9.5331326172498787E-2</v>
-      </c>
-      <c r="E52">
-        <v>491.66424245727552</v>
-      </c>
-      <c r="F52">
-        <v>363188.07411379262</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53">
-        <v>0.20825678941393519</v>
-      </c>
-      <c r="D53">
-        <v>0.23912076431797979</v>
-      </c>
-      <c r="E53">
-        <v>4433.877883559896</v>
-      </c>
-      <c r="F53">
-        <v>27578600.119856302</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54">
-        <v>0.2272989288060577</v>
-      </c>
-      <c r="D54">
-        <v>0.2020123340014833</v>
-      </c>
-      <c r="E54">
-        <v>2645.6287396218859</v>
-      </c>
-      <c r="F54">
-        <v>13747129.371267229</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55">
-        <v>9.4950655131049014E-2</v>
-      </c>
-      <c r="D55">
-        <v>0.1020049586152402</v>
-      </c>
-      <c r="E55">
-        <v>2955.544046606512</v>
-      </c>
-      <c r="F55">
-        <v>13401641.988677571</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56">
-        <v>0.12841163301511169</v>
-      </c>
-      <c r="D56">
-        <v>0.13585962786532879</v>
-      </c>
-      <c r="E56">
-        <v>3592.868462434632</v>
-      </c>
-      <c r="F56">
-        <v>21891933.93920793</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57">
-        <v>6.9103646444634889E-2</v>
-      </c>
-      <c r="D57">
-        <v>7.1647642552499335E-2</v>
-      </c>
-      <c r="E57">
-        <v>3338.313136003645</v>
-      </c>
-      <c r="F57">
-        <v>23471282.83519794</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58">
-        <v>0.26622541260668608</v>
-      </c>
-      <c r="D58">
-        <v>0.31670514651714898</v>
-      </c>
-      <c r="E58">
-        <v>19617.673575306129</v>
-      </c>
-      <c r="F58">
-        <v>479634853.95368552</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59">
-        <v>0.20182088619591829</v>
-      </c>
-      <c r="D59">
-        <v>0.2279941530918832</v>
-      </c>
-      <c r="E59">
-        <v>60090.51404260147</v>
-      </c>
-      <c r="F59">
-        <v>4302549088.436676</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60">
-        <v>0.12296496135289819</v>
-      </c>
-      <c r="D60">
-        <v>0.11083914635292121</v>
-      </c>
-      <c r="E60">
-        <v>817.63762936375053</v>
-      </c>
-      <c r="F60">
-        <v>1288527.5395487</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61">
-        <v>0.14061557759516921</v>
-      </c>
-      <c r="D61">
-        <v>0.15131236567842909</v>
-      </c>
-      <c r="E61">
-        <v>972.20063272117079</v>
-      </c>
-      <c r="F61">
-        <v>1325736.140132142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62">
-        <v>5.665336134903743E-2</v>
-      </c>
-      <c r="D62">
-        <v>5.7888006245843462E-2</v>
-      </c>
-      <c r="E62">
-        <v>241.612210070283</v>
-      </c>
-      <c r="F62">
-        <v>88326.911794338768</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63">
-        <v>0.1230521367979007</v>
-      </c>
-      <c r="D63">
-        <v>0.13313506014398269</v>
-      </c>
-      <c r="E63">
-        <v>3690.4017693852711</v>
-      </c>
-      <c r="F63">
-        <v>18199563.629106339</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64">
-        <v>0.1344159347587128</v>
-      </c>
-      <c r="D64">
-        <v>0.1267698622094709</v>
-      </c>
-      <c r="E64">
-        <v>1472.850999624015</v>
-      </c>
-      <c r="F64">
-        <v>3409174.4557320569</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65">
-        <v>0.21597602753765099</v>
-      </c>
-      <c r="D65">
-        <v>0.2479332428174344</v>
-      </c>
-      <c r="E65">
-        <v>843.31175521751788</v>
-      </c>
-      <c r="F65">
-        <v>894219.29308876069</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66">
-        <v>7.8498379622462908E-2</v>
-      </c>
-      <c r="D66">
-        <v>8.2634774758487808E-2</v>
-      </c>
-      <c r="E66">
-        <v>2445.1053649171581</v>
-      </c>
-      <c r="F66">
-        <v>8084908.1807109779</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67">
-        <v>0.2389521128938607</v>
-      </c>
-      <c r="D67">
-        <v>0.27901525222250989</v>
-      </c>
-      <c r="E67">
-        <v>1589.2173022739</v>
-      </c>
-      <c r="F67">
-        <v>3166417.354193904</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68">
-        <v>8.5129264602098589E-2</v>
-      </c>
-      <c r="D68">
-        <v>8.7525512400265848E-2</v>
-      </c>
-      <c r="E68">
-        <v>3763.0413199755221</v>
-      </c>
-      <c r="F68">
-        <v>20638340.359352019</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69">
-        <v>9.982528467290458E-2</v>
-      </c>
-      <c r="D69">
-        <v>9.8388754738443565E-2</v>
-      </c>
-      <c r="E69">
-        <v>707.4580963174227</v>
-      </c>
-      <c r="F69">
-        <v>751225.03926486627</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70">
-        <v>7.3495096589413597E-2</v>
-      </c>
-      <c r="D70">
-        <v>7.5631043195069858E-2</v>
-      </c>
-      <c r="E70">
-        <v>1334.4256399832</v>
-      </c>
-      <c r="F70">
-        <v>2547547.9768676092</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71">
-        <v>0.1512919797614154</v>
-      </c>
-      <c r="D71">
-        <v>0.15336186505242139</v>
-      </c>
-      <c r="E71">
-        <v>962.76324266094139</v>
-      </c>
-      <c r="F71">
-        <v>1233373.652502191</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72">
-        <v>9.9926729998094058E-2</v>
-      </c>
-      <c r="D72">
-        <v>0.1034788079396545</v>
-      </c>
-      <c r="E72">
-        <v>1221.903935856187</v>
-      </c>
-      <c r="F72">
-        <v>2722054.740291121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73">
-        <v>0.1060200620067821</v>
-      </c>
-      <c r="D73">
-        <v>0.1139771703009623</v>
-      </c>
-      <c r="E73">
-        <v>1198.8469011038931</v>
-      </c>
-      <c r="F73">
-        <v>2061298.2136837561</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74">
-        <v>6.6667262202938879E-2</v>
-      </c>
-      <c r="D74">
-        <v>6.5654609956521379E-2</v>
-      </c>
-      <c r="E74">
-        <v>1870.253442965789</v>
-      </c>
-      <c r="F74">
-        <v>6188296.3519460652</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75">
-        <v>0.2912469128124498</v>
-      </c>
-      <c r="D75">
-        <v>0.24574624857958469</v>
-      </c>
-      <c r="E75">
-        <v>992.02644745234863</v>
-      </c>
-      <c r="F75">
-        <v>1211025.6254492151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76">
-        <v>6.9056131595626596E-2</v>
-      </c>
-      <c r="D76">
-        <v>6.9066793949690244E-2</v>
-      </c>
-      <c r="E76">
-        <v>1510.835886348008</v>
-      </c>
-      <c r="F76">
-        <v>3416262.0365225342</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77">
-        <v>0.1284800179787782</v>
-      </c>
-      <c r="D77">
-        <v>0.13939603731623421</v>
-      </c>
-      <c r="E77">
-        <v>15568.365579528039</v>
-      </c>
-      <c r="F77">
-        <v>342145299.78012979</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>76</v>
-      </c>
-      <c r="C78">
-        <v>8.5257613591197878E-2</v>
-      </c>
-      <c r="D78">
-        <v>8.9896986791637143E-2</v>
-      </c>
-      <c r="E78">
-        <v>27616.745603464082</v>
-      </c>
-      <c r="F78">
-        <v>988237835.45834935</v>
       </c>
     </row>
   </sheetData>

--- a/Run 2/Forecast_Results_LSTM_Demand.xlsx
+++ b/Run 2/Forecast_Results_LSTM_Demand.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpersaricioglu/Library/Mobile Documents/com~apple~CloudDocs/PhD Thesis/1 Tez Önerisi/1 Çalışmalar/Time series runs 26.3.24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpersaricioglu/Library/Mobile Documents/com~apple~CloudDocs/PhD Thesis/1 Tez Önerisi/1 Çalışmalar/Time series runs 26.3.24/New DNN forecast input (9.4.24)/Run 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9204C42F-39BD-2549-B231-34DFC2FF06EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C3DAA2-2D1F-AF41-A529-B64B1F02DC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
   <si>
     <t>Apparel</t>
   </si>
@@ -268,13 +268,16 @@
   <si>
     <t>MSE</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -331,7 +334,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -639,7 +642,7 @@
   <dimension ref="A1:BZ97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -648,6 +651,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>

--- a/Run 2/Forecast_Results_LSTM_Demand.xlsx
+++ b/Run 2/Forecast_Results_LSTM_Demand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpersaricioglu/Library/Mobile Documents/com~apple~CloudDocs/PhD Thesis/1 Tez Önerisi/1 Çalışmalar/Time series runs 26.3.24/New DNN forecast input (9.4.24)/Run 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C3DAA2-2D1F-AF41-A529-B64B1F02DC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FC28AF-54BF-C948-8703-5C9F0FD61DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,10 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +289,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,9 +339,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,7 +645,7 @@
   <dimension ref="A1:BZ97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
